--- a/app/website_monitor/domainler.xlsx
+++ b/app/website_monitor/domainler.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,7 +485,7 @@
         <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>1726046689.123167</v>
+        <v>1726071225.251578</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>1726046690.718038</v>
+        <v>1726071226.626165</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>1726046692.175865</v>
+        <v>1726071227.971275</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>1726046693.717193</v>
+        <v>1726071229.049401</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>1726046696.255905</v>
+        <v>1726071230.860422</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>1726046700.398523</v>
+        <v>1726071234.55379</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>1726046702.95873</v>
+        <v>1726071238.052523</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>1726046705.572438</v>
+        <v>1726071240.243139</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>200</v>
       </c>
       <c r="E10" t="n">
-        <v>1726046708.1685</v>
+        <v>1726071242.503364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>1726046710.529416</v>
+        <v>1726071244.468846</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>1726046713.219876</v>
+        <v>1726071247.026529</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>200</v>
       </c>
       <c r="E13" t="n">
-        <v>1726046716.268432</v>
+        <v>1726071248.712568</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>1726046718.14542</v>
+        <v>1726071249.852247</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>1726046721.522749</v>
+        <v>1726071254.128891</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>1726046724.682581</v>
+        <v>1726071256.429369</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>1726046726.000972</v>
+        <v>1726071257.379897</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>1726046727.902552</v>
+        <v>1726071258.43006</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>200</v>
       </c>
       <c r="E19" t="n">
-        <v>1726046729.575623</v>
+        <v>1726071259.703873</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>1726046731.294015</v>
+        <v>1726071260.763229</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>1726046733.265278</v>
+        <v>1726071262.248139</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>200</v>
       </c>
       <c r="E22" t="n">
-        <v>1726046735.223714</v>
+        <v>1726071263.573632</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>200</v>
       </c>
       <c r="E23" t="n">
-        <v>1726046738.045765</v>
+        <v>1726071265.54915</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>1726046740.817563</v>
+        <v>1726071267.928996</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>200</v>
       </c>
       <c r="E25" t="n">
-        <v>1726046747.839132</v>
+        <v>1726071270.29022</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>200</v>
       </c>
       <c r="E26" t="n">
-        <v>1726046750.080438</v>
+        <v>1726071272.109294</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>200</v>
       </c>
       <c r="E27" t="n">
-        <v>1726046753.587427</v>
+        <v>1726071274.97484</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>200</v>
       </c>
       <c r="E28" t="n">
-        <v>1726046756.229371</v>
+        <v>1726071277.191327</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>404</v>
       </c>
       <c r="E29" t="n">
-        <v>1726046757.871518</v>
+        <v>1726071278.612597</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>1726046761.430388</v>
+        <v>1726071282.110018</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>1726046762.914173</v>
+        <v>1726071283.258054</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>154.41.249.82</t>
+          <t>77.37.53.92</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1325,7 +1325,7 @@
         <v>200</v>
       </c>
       <c r="E32" t="n">
-        <v>1726046766.289837</v>
+        <v>1726071286.010654</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>200</v>
       </c>
       <c r="E33" t="n">
-        <v>1726046769.138703</v>
+        <v>1726071287.629716</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>200</v>
       </c>
       <c r="E34" t="n">
-        <v>1726046770.60033</v>
+        <v>1726071288.91623</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>200</v>
       </c>
       <c r="E35" t="n">
-        <v>1726046772.28754</v>
+        <v>1726071290.126556</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>200</v>
       </c>
       <c r="E36" t="n">
-        <v>1726046774.466382</v>
+        <v>1726071292.035084</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>200</v>
       </c>
       <c r="E37" t="n">
-        <v>1726046776.109436</v>
+        <v>1726071293.230975</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>200</v>
       </c>
       <c r="E38" t="n">
-        <v>1726046779.261341</v>
+        <v>1726071295.061898</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>200</v>
       </c>
       <c r="E39" t="n">
-        <v>1726046782.528363</v>
+        <v>1726071298.206683</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="n">
-        <v>1726046788.280654</v>
+        <v>1726071301.681904</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>200</v>
       </c>
       <c r="E41" t="n">
-        <v>1726046790.825481</v>
+        <v>1726071304.525089</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>200</v>
       </c>
       <c r="E42" t="n">
-        <v>1726046794.934932</v>
+        <v>1726071307.433825</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>404</v>
       </c>
       <c r="E43" t="n">
-        <v>1726046796.79835</v>
+        <v>1726071308.573928</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>200</v>
       </c>
       <c r="E44" t="n">
-        <v>1726046799.481261</v>
+        <v>1726071310.61937</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>200</v>
       </c>
       <c r="E45" t="n">
-        <v>1726046802.045425</v>
+        <v>1726071314.652019</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>200</v>
       </c>
       <c r="E46" t="n">
-        <v>1726046806.176468</v>
+        <v>1726071318.069003</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>200</v>
       </c>
       <c r="E47" t="n">
-        <v>1726046809.422512</v>
+        <v>1726071320.02922</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>200</v>
       </c>
       <c r="E48" t="n">
-        <v>1726046810.986061</v>
+        <v>1726071321.464144</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>200</v>
       </c>
       <c r="E49" t="n">
-        <v>1726046813.558926</v>
+        <v>1726071323.107612</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>200</v>
       </c>
       <c r="E50" t="n">
-        <v>1726046816.492415</v>
+        <v>1726071325.228643</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>200</v>
       </c>
       <c r="E51" t="n">
-        <v>1726046819.705523</v>
+        <v>1726071327.52668</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>200</v>
       </c>
       <c r="E52" t="n">
-        <v>1726046823.851823</v>
+        <v>1726071329.627092</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>200</v>
       </c>
       <c r="E53" t="n">
-        <v>1726046826.430653</v>
+        <v>1726071331.574907</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>200</v>
       </c>
       <c r="E54" t="n">
-        <v>1726046828.421335</v>
+        <v>1726071333.286583</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>200</v>
       </c>
       <c r="E55" t="n">
-        <v>1726046830.02936</v>
+        <v>1726071334.690312</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>200</v>
       </c>
       <c r="E56" t="n">
-        <v>1726046831.626432</v>
+        <v>1726071335.792448</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>200</v>
       </c>
       <c r="E57" t="n">
-        <v>1726046833.505088</v>
+        <v>1726071337.133139</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>200</v>
       </c>
       <c r="E58" t="n">
-        <v>1726046839.616219</v>
+        <v>1726071342.992572</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>200</v>
       </c>
       <c r="E59" t="n">
-        <v>1726046842.487835</v>
+        <v>1726071345.61633</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>200</v>
       </c>
       <c r="E60" t="n">
-        <v>1726046844.062505</v>
+        <v>1726071346.814214</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>200</v>
       </c>
       <c r="E61" t="n">
-        <v>1726046845.641264</v>
+        <v>1726071348.173024</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>200</v>
       </c>
       <c r="E62" t="n">
-        <v>1726046848.335152</v>
+        <v>1726071350.47946</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>200</v>
       </c>
       <c r="E63" t="n">
-        <v>1726046850.88247</v>
+        <v>1726071352.24616</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>200</v>
       </c>
       <c r="E64" t="n">
-        <v>1726046853.400353</v>
+        <v>1726071353.855042</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>200</v>
       </c>
       <c r="E65" t="n">
-        <v>1726046856.617235</v>
+        <v>1726071358.94447</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>200</v>
       </c>
       <c r="E66" t="n">
-        <v>1726046858.356683</v>
+        <v>1726071360.057999</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>200</v>
       </c>
       <c r="E67" t="n">
-        <v>1726046862.414618</v>
+        <v>1726071364.527637</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>200</v>
       </c>
       <c r="E68" t="n">
-        <v>1726046865.39181</v>
+        <v>1726071366.439922</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>

--- a/app/website_monitor/domainler.xlsx
+++ b/app/website_monitor/domainler.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +468,111 @@
           <t>screenshot</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dns_resolution_time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ssl_issued_to</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ssl_issuer</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ssl_valid_from</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ssl_valid_until</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>hostname</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>org</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>postal</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>timezone</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>country_name</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>country_code</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>continent_name</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>continent_code</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>country_flag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -485,11 +594,110 @@
         <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>1726071225.251578</v>
+        <v>1726324081.384765</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>www.agid.com.tr_.png</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.agid.com.tr/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.agid.com.tr/wp-json/wp/v2/pages/5710&gt;; rel="alternate"; type="application/json"'), ('link', '&lt;https://www.agid.com.tr/&gt;; rel=shortlink'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:20 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4.471969604492188e-05</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>agid.com.tr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>45541.935625</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45631.93561342593</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>211km5vaq.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -513,11 +721,110 @@
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>1726071226.626165</v>
+        <v>1726324083.169273</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>www.bahcecimi.com_.png</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.2.34', 'content-type': 'text/html; charset=UTF-8', 'content-length': '404', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'date': 'Sat, 14 Sep 2024 14:27:25 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2.757883071899414e-05</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>bahcecimi.ehalici.com</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45516.31628472222</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45606.31627314815</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3sazof9.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>İzmir Province</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>38.4127,27.1384</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>38.4127</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>27.1384</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -541,11 +848,110 @@
         <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>1726071227.971275</v>
+        <v>1726324085.021341</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>www.baskilihali.com_.png</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '330', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1.619315147399902e-05</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>www.baskilihali.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>45507.53944444445</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>45597.53943287037</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -569,11 +975,110 @@
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>1726071229.049401</v>
+        <v>1726324086.883272</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>www.baskilipaspas.com_.png</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '316', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'date': 'Sat, 14 Sep 2024 14:27:20 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6.541013717651367e-06</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>www.baskilicocukhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>45507.41938657407</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>45597.419375</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -590,18 +1095,117 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="E6" t="n">
-        <v>1726071230.860422</v>
+        <v>1726324090.063303</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>www.buklehalifleks.com_.png</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'content-length': '795', 'date': 'Sat, 14 Sep 2024 14:27:23 GMT', 'server': 'LiteSpeed', 'location': 'https://www.halifleks.com/', 'vary': 'User-Agent', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2.776312828063965e-05</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>buklehalifleks.com</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45497.6791087963</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>45587.67909722222</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1156euct7.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -625,11 +1229,110 @@
         <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>1726071234.55379</v>
+        <v>1726324094.197656</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>www.camihalicisi.com_.png</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('set-cookie', 'frontend=32d30a486a439bcc5b1c4a0a9eae1c2e; expires=Sat, 14-Sep-2024 15:27:21 GMT; Max-Age=3600; path=/; domain=www.camihalicisi.com; HttpOnly; secure'), ('expires', 'Thu, 19 Nov 1981 08:52:00 GMT'), ('cache-control', 'no-store, no-cache, must-revalidate'), ('pragma', 'no-cache'), ('set-cookie', 'frontend_cid=Neok2GIIe7YL4nLk; expires=Sat, 14-Sep-2024 15:27:21 GMT; Max-Age=3600; path=/; domain=www.camihalicisi.com; secure; HttpOnly'), ('set-cookie', 'store=default; expires=Sun, 14-Sep-2025 14:27:22 GMT; Max-Age=31536000; path=/; domain=www.camihalicisi.com; HttpOnly; secure'), ('set-cookie', 'layout=deleted; expires=Thu, 01-Jan-1970 00:00:01 GMT; Max-Age=0; path=/; domain=www.camihalicisi.com; HttpOnly; secure'), ('content-type', 'text/html; charset=UTF-8'), ('x-frame-options', 'SAMEORIGIN'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:22 GMT'), ('server', 'LiteSpeed'), ('x-content-type-options', 'nosniff'), ('x-xss-protection', '1; mode=block'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2.771377563476562e-05</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>www.camihalicisi.ehalici.com</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>45514.19333333334</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>45604.19332175926</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3sazof9.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>İzmir Province</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>38.4127,27.1384</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>38.4127</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>27.1384</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -653,11 +1356,110 @@
         <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>1726071238.052523</v>
+        <v>1726324097.170525</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>www.camihalifabrikasi.com_.png</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Sat, 21 Apr 2018 07:27:57 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'content-length': '184', 'date': 'Sat, 14 Sep 2024 14:27:26 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5.99980354309082e-06</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>www.camihalisifabrikasi.camilik.com</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45510.68423611111</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>45600.68422453704</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>162p94xyd.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -681,11 +1483,110 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>1726071240.243139</v>
+        <v>1726324099.738607</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>www.camihalifiyatlari.com_.png</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Sat, 21 Apr 2018 07:28:49 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'content-length': '192', 'date': 'Sat, 14 Sep 2024 14:27:26 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1.754403114318848e-05</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>*.camihalifiyatlari.com</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45510.05806712963</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>45600.05805555556</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>162p94xyd.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -709,11 +1610,110 @@
         <v>200</v>
       </c>
       <c r="E10" t="n">
-        <v>1726071242.503364</v>
+        <v>1726324102.879129</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>www.camihalisifabrikasi.com_.png</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Sat, 21 Apr 2018 07:28:10 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'content-length': '186', 'date': 'Sat, 14 Sep 2024 14:27:22 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4.636502265930176e-05</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>www.camihalisifabrikasi.camilik.com</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45510.68423611111</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>45600.68422453704</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>162p94xyd.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -737,11 +1737,110 @@
         <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>1726071244.468846</v>
+        <v>1726324105.685213</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>www.camiihali.com_.png</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/5.6.40', 'content-type': 'text/html; charset=UTF-8', 'cache-control': 'no-store, no-cache, must-revalidate, post-check=0, pre-check=0', 'pragma': 'no-cache', 'x-frame-options': 'SAMEORIGIN', 'bubble-fpc': '3.5.1', 'transfer-encoding': 'chunked', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'date': 'Sat, 14 Sep 2024 14:27:22 GMT', 'server': 'LiteSpeed', 'x-content-type-options': 'nosniff', 'x-xss-protection': '1; mode=block', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2.050042152404785e-05</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>www.camihalisifabrikasi.camilik.com</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45510.68423611111</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>45600.68422453704</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>162p94xyd.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -765,11 +1864,110 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>1726071247.026529</v>
+        <v>1726324108.298545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>www.camilik.com_.png</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Mon, 07 May 2018 08:09:28 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'content-length': '186', 'date': 'Sat, 14 Sep 2024 14:27:26 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1.55940055847168e-05</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>camilik.com</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45508.80972222222</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>45598.80971064815</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>162p94xyd.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -793,11 +1991,110 @@
         <v>200</v>
       </c>
       <c r="E13" t="n">
-        <v>1726071248.712568</v>
+        <v>1726324111.199467</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>www.carpetsbook.com_.png</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/8.1.29'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.carpetsbook.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.carpetsbook.com/wp-json/wp/v2/pages/84&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.carpetsbook.com/&gt;; rel=shortlink'), ('etag', '"8514-1725979052;br"'), ('x-litespeed-cache', 'hit'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('content-length', '24453'), ('date', 'Sat, 14 Sep 2024 14:27:23 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1.715755462646484e-05</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>carpetsbook.com</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45498.25358796296</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>45588.25357638889</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1156euct7.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -821,11 +2118,110 @@
         <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>1726071249.852247</v>
+        <v>1726324112.997263</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>www.cimrulo.com_.png</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.2.34', 'content-type': 'text/html; charset=UTF-8', 'content-length': '402', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'date': 'Sat, 14 Sep 2024 14:27:26 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4.992198944091797e-05</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>bahcecimi.ehalici.com</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45514.19335648148</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>45604.19334490741</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3sazof9.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>İzmir Province</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>38.4127,27.1384</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>38.4127</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>27.1384</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -849,11 +2245,110 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>1726071254.128891</v>
+        <v>1726324116.730932</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>www.cimtelcit.com_.png</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.cimtelcit.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.cimtelcit.com/wp-json/wp/v2/pages/22&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.cimtelcit.com/&gt;; rel=shortlink'), ('last-modified', 'Sat, 14 Sep 2024 14:27:23 GMT'), ('cache-control', 'public, max-age=0'), ('expires', 'Sat, 14 Sep 2024 14:27:23 GMT'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent,Accept-Encoding'), ('date', 'Sat, 14 Sep 2024 14:27:23 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1.651144027709961e-05</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>www.camihalicisi.ehalici.com</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45514.19333333334</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>45604.19332175926</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3sazof9.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>İzmir Province</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>38.4127,27.1384</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>38.4127</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>27.1384</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -877,11 +2372,110 @@
         <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>1726071256.429369</v>
+        <v>1726324119.844066</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>www.confettihalilari.com_.png</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.confettihalilari.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.confettihalilari.com/wp-json/wp/v2/pages/554&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.confettihalilari.com/&gt;; rel=shortlink'), ('etag', '"2731755-1726310838;br"'), ('x-litespeed-cache', 'hit'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding'), ('date', 'Sat, 14 Sep 2024 14:27:22 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1.916670799255371e-05</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>www.turkfleks.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45539.03967592592</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>45629.03966435185</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -905,11 +2499,110 @@
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>1726071257.379897</v>
+        <v>1726324121.551471</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>www.dekorasyoncim.com_.png</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '0', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3.641104698181152e-05</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>www.baskilihali.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45507.53944444445</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>45597.53943287037</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -933,11 +2626,110 @@
         <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>1726071258.43006</v>
+        <v>1726324123.232061</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>www.dekorasyoncimhali.com_.png</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '0', 'date': 'Sat, 14 Sep 2024 14:27:22 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5.195713043212891e-05</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>www.ucakhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45507.41946759259</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>45597.41945601852</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -961,11 +2753,110 @@
         <v>200</v>
       </c>
       <c r="E19" t="n">
-        <v>1726071259.703873</v>
+        <v>1726324125.168025</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>www.dekorasyoncimhalisi.com_.png</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '0', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6.526231765747071e-06</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>www.baskilicocukhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45507.41938657407</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>45597.419375</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -989,11 +2880,110 @@
         <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>1726071260.763229</v>
+        <v>1726324127.120593</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>www.desenlicocukhalilari.com_.png</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '324', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9.494304656982423e-06</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>www.baskilihali.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45507.53944444445</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>45597.53943287037</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1017,11 +3007,110 @@
         <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>1726071262.248139</v>
+        <v>1726324128.982651</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>www.desenlicocukhalisi.com_.png</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '324', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1.905059814453125e-05</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>www.ucuzzemin.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45507.41930555556</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>45597.41929398148</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1045,11 +3134,110 @@
         <v>200</v>
       </c>
       <c r="E22" t="n">
-        <v>1726071263.573632</v>
+        <v>1726324130.831247</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>www.desenlihali.com_.png</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Thu, 15 Jun 2017 10:48:16 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '291', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2.856302261352539e-05</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>www.baskilicocukhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45507.41938657407</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>45597.419375</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1073,11 +3261,110 @@
         <v>200</v>
       </c>
       <c r="E23" t="n">
-        <v>1726071265.54915</v>
+        <v>1726324134.051179</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>www.dinarsuhalilari.com_.png</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.dinarsuhalilari.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.dinarsuhalilari.com/wp-json/wp/v2/pages/544&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.dinarsuhalilari.com/&gt;; rel=shortlink'), ('etag', '"2662837-1726016454;br"'), ('x-litespeed-cache', 'hit'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding'), ('content-length', '20314'), ('date', 'Sat, 14 Sep 2024 14:27:24 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3.258085250854492e-05</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>*.dinarsuhalilari.com</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45539.53934027778</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>45629.5393287037</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1101,11 +3388,110 @@
         <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>1726071267.928996</v>
+        <v>1726324137.165189</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>www.duvardanduvara.com_.png</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('set-cookie', 'frontend=5cf966d11099901b79f58b4ad1bb2e5c; expires=Sat, 14-Sep-2024 15:27:27 GMT; Max-Age=3600; path=/; domain=www.duvardanduvara.com; HttpOnly; secure'), ('expires', 'Thu, 19 Nov 1981 08:52:00 GMT'), ('cache-control', 'no-store, no-cache, must-revalidate'), ('pragma', 'no-cache'), ('set-cookie', 'frontend_cid=9tFLXVaQepQOl1wm; expires=Sat, 14-Sep-2024 15:27:27 GMT; Max-Age=3600; path=/; domain=www.duvardanduvara.com; secure; HttpOnly'), ('set-cookie', 'store=default; expires=Sun, 14-Sep-2025 14:27:27 GMT; Max-Age=31536000; path=/; domain=www.duvardanduvara.com; HttpOnly; secure'), ('set-cookie', 'layout=deleted; expires=Thu, 01-Jan-1970 00:00:01 GMT; Max-Age=0; path=/; domain=www.duvardanduvara.com; HttpOnly; secure'), ('content-type', 'text/html; charset=UTF-8'), ('x-frame-options', 'SAMEORIGIN'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:27 GMT'), ('server', 'LiteSpeed'), ('x-content-type-options', 'nosniff'), ('x-xss-protection', '1; mode=block'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1.75166130065918e-05</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>duvardanduvara.com</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>45532.23069444444</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>45622.23068287037</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>102w8oqex.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1129,11 +3515,110 @@
         <v>200</v>
       </c>
       <c r="E25" t="n">
-        <v>1726071270.29022</v>
+        <v>1726324139.967252</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>www.duvardanduvarahali.com_.png</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Tue, 19 Apr 2022 11:39:44 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'content-length': '5967', 'date': 'Sat, 14 Sep 2024 14:27:30 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6.524801254272461e-06</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>duvardanduvarahali.com</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45497.67783564814</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>45587.67782407408</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1156euct7.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1157,11 +3642,110 @@
         <v>200</v>
       </c>
       <c r="E26" t="n">
-        <v>1726071272.109294</v>
+        <v>1726324143.973303</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>www.ehalici.com_.png</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.ehalici.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.ehalici.com/wp-json/wp/v2/pages/466&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.ehalici.com/&gt;; rel=shortlink'), ('etag', '"400792-1726228889;br"'), ('x-litespeed-cache', 'hit'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('content-length', '23857'), ('date', 'Sat, 14 Sep 2024 14:27:25 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1.671099662780762e-05</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ehalici.com</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45514.19329861111</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>45604.19328703704</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>3sazof9.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>İzmir Province</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>38.4127,27.1384</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>38.4127</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>27.1384</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1185,11 +3769,110 @@
         <v>200</v>
       </c>
       <c r="E27" t="n">
-        <v>1726071274.97484</v>
+        <v>1726324148.037051</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>www.emanhali.com_.png</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.emanhali.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.emanhali.com/wp-json/wp/v2/pages/7682&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.emanhali.com/&gt;; rel=shortlink'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:24 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3.000020980834961e-06</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>emanhali.halifleks.com</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45527.5362037037</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>45617.53619212963</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>211hyd4no.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1213,11 +3896,110 @@
         <v>200</v>
       </c>
       <c r="E28" t="n">
-        <v>1726071277.191327</v>
+        <v>1726324151.238472</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>www.emanzemin.com_.png</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.emanzemin.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.emanzemin.com/wp-json/wp/v2/pages/11&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.emanzemin.com/&gt;; rel=shortlink'), ('etag', '"8362-1726301402;br"'), ('x-litespeed-cache', 'hit'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('content-length', '41976'), ('date', 'Sat, 14 Sep 2024 14:27:29 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2.072811126708985e-06</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>emanzemin.com</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45493.02461805556</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>45583.02460648148</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>35rby11p.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1241,11 +4023,110 @@
         <v>404</v>
       </c>
       <c r="E29" t="n">
-        <v>1726071278.612597</v>
+        <v>1726324153.334027</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>www.emanzeminkaplamalari.com_.png</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'cache-control': 'private, no-cache, no-store, must-revalidate, max-age=0', 'pragma': 'no-cache', 'content-type': 'text/html', 'content-length': '1238', 'date': 'Sat, 14 Sep 2024 14:27:28 GMT', 'server': 'LiteSpeed', 'vary': 'User-Agent', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4.436159133911133e-05</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>emanzeminkaplamalari.com</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>45496.8353125</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>45586.83530092592</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>102w8oqex.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1269,11 +4150,110 @@
         <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>1726071282.110018</v>
+        <v>1726324156.860409</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>www.evaminder.com_.png</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.evaminder.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.evaminder.com/wp-json/wp/v2/pages/553&gt;; rel="alternate"; type="application/json"'), ('link', '&lt;https://www.evaminder.com/&gt;; rel=shortlink'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:30 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6.067991256713867e-06</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>evaminder.com</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>45496.83490740741</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>45586.83489583333</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>102w8oqex.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1297,11 +4277,110 @@
         <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>1726071283.258054</v>
+        <v>1726324158.581593</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>www.flokhali.com_.png</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '0', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2.104306221008301e-05</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>www.ucakhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>45507.41946759259</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>45597.41945601852</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1313,23 +4392,122 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>77.37.53.92</t>
+          <t>77.37.83.107</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="E32" t="n">
-        <v>1726071286.010654</v>
+        <v>1726324162.269765</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>www.gursoyrealty.com_.png</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Headers({'server': 'hcdn', 'date': 'Sat, 14 Sep 2024 14:27:31 GMT', 'content-type': 'text/html; charset=UTF-8', 'content-length': '0', 'connection': 'keep-alive', 'x-powered-by': 'PHP/8.1.27', 'x-redirect-by': 'WordPress', 'location': 'https://gursoyrealty.com/', 'cache-control': 'public, max-age=604800', 'expires': 'Sat, 21 Sep 2024 14:27:31 GMT', 'x-litespeed-cache': 'miss', 'platform': 'hostinger', 'panel': 'hpanel', 'content-security-policy': 'upgrade-insecure-requests', 'alt-svc': 'h3=":443"; ma=86400', 'x-hcdn-request-id': 'da83363d85e2f19f14b090ce5d39ad1d-srv-edge5', 'x-hcdn-cache-status': 'MISS', 'x-hcdn-upstream-rt': '1.382'})</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6.068801879882813e-05</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>gursoyrealty.com</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>45539.54785879629</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>45629.54784722222</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Meppel</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Drenthe</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>52.6958,6.1944</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>AS47583 Hostinger International Limited</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>7941</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Europe/Amsterdam</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>52.6958</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>6.1944</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/NL.svg</t>
         </is>
       </c>
     </row>
@@ -1353,11 +4531,110 @@
         <v>200</v>
       </c>
       <c r="E33" t="n">
-        <v>1726071287.629716</v>
+        <v>1726324164.784506</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>www.halibicagi.com_.png</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'set-cookie': 'PHPSESSID=6536beb727835566b308a8e0cc3ec08c; path=/; HttpOnly; secure', 'expires': 'Thu, 19 Nov 1981 08:52:00 GMT', 'cache-control': 'no-store, no-cache, must-revalidate', 'pragma': 'no-cache', 'content-type': 'text/html; charset=UTF-8', 'transfer-encoding': 'chunked', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1.780390739440918e-05</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>halibicagi.com</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45547.04143518519</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>45637.04142361111</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>211km5vaq.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1381,11 +4658,110 @@
         <v>200</v>
       </c>
       <c r="E34" t="n">
-        <v>1726071288.91623</v>
+        <v>1726324166.685874</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>www.halidosemeci.com_.png</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Thu, 15 Jun 2017 10:57:31 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '296', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1.864528656005859e-05</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>www.ucuzzemin.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45507.41930555556</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>45597.41929398148</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1409,11 +4785,110 @@
         <v>200</v>
       </c>
       <c r="E35" t="n">
-        <v>1726071290.126556</v>
+        <v>1726324168.807063</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>www.halifabrikasi.com_.png</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Mon, 03 Jul 2017 12:40:28 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '281', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1.683855056762695e-05</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>www.ucakhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45507.41946759259</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>45597.41945601852</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1437,11 +4912,110 @@
         <v>200</v>
       </c>
       <c r="E36" t="n">
-        <v>1726071292.035084</v>
+        <v>1726324171.771503</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>www.halifleks.com_.png</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'cache-control': 'no-store, no-cache, must-revalidate, post-check=0, pre-check=0', 'pragma': 'no-cache', 'x-frame-options': 'SAMEORIGIN', 'bubble-fpc': '3.5.1', 'content-length': '13277', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'date': 'Sat, 14 Sep 2024 14:27:23 GMT', 'server': 'LiteSpeed', 'x-content-type-options': 'nosniff', 'x-xss-protection': '1; mode=block', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6.021261215209961e-06</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>cpcontacts.halifleks.com</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45527.41172453704</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>45617.41171296296</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>211hyd4no.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1465,11 +5039,110 @@
         <v>200</v>
       </c>
       <c r="E37" t="n">
-        <v>1726071293.230975</v>
+        <v>1726324173.49436</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>www.halisahahalisi.com_.png</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.2.34', 'content-type': 'text/html; charset=UTF-8', 'content-length': '404', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'date': 'Sat, 14 Sep 2024 14:27:25 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4.802823066711426e-05</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ehalici.com</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45514.19329861111</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>45604.19328703704</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3sazof9.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>İzmir Province</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>38.4127,27.1384</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>38.4127</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>27.1384</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1493,11 +5166,110 @@
         <v>200</v>
       </c>
       <c r="E38" t="n">
-        <v>1726071295.061898</v>
+        <v>1726324176.210315</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>www.haliutubandi.com_.png</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/8.1.29'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.haliutubandi.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.haliutubandi.com/wp-json/wp/v2/pages/1263&gt;; rel="alternate"; type="application/json"'), ('link', '&lt;https://www.haliutubandi.com/&gt;; rel=shortlink'), ('etag', '"8625-1726016669;br"'), ('x-litespeed-cache', 'hit'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:29 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1.803398132324219e-05</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>haliutubandi.com</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45497.67818287037</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>45587.6781712963</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1156euct7.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1521,11 +5293,110 @@
         <v>200</v>
       </c>
       <c r="E39" t="n">
-        <v>1726071298.206683</v>
+        <v>1726324179.419743</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>www.halivizyon.com_.png</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.halivizyon.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.halivizyon.com/wp-json/wp/v2/pages/97&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.halivizyon.com/&gt;; rel=shortlink'), ('etag', '"2668688-1726036173;br"'), ('x-litespeed-cache', 'hit'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding'), ('content-length', '15357'), ('date', 'Sat, 14 Sep 2024 14:27:27 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1.784825325012207e-05</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>*.dinarsuhalilari.com</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>45539.53934027778</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>45629.5393287037</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1549,11 +5420,110 @@
         <v>200</v>
       </c>
       <c r="E40" t="n">
-        <v>1726071301.681904</v>
+        <v>1726324183.948735</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>www.haliyapistirici.com_.png</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/8.1.29'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.haliyapistirici.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.haliyapistirici.com/wp-json/wp/v2/pages/1263&gt;; rel="alternate"; type="application/json"'), ('link', '&lt;https://www.haliyapistirici.com/&gt;; rel=shortlink'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:33 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2.205967903137207e-05</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>haliyapistirici.com</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>45498.25304398148</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>45588.25303240741</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1156euct7.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1577,11 +5547,110 @@
         <v>200</v>
       </c>
       <c r="E41" t="n">
-        <v>1726071304.525089</v>
+        <v>1726324186.706242</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>www.hediyepaspas.com_.png</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('set-cookie', 'frontend=4b39f9f49a9c6c3f18d342bd18dee0f8; expires=Sat, 14-Sep-2024 15:27:28 GMT; Max-Age=3600; path=/; domain=www.hediyepaspas.com; HttpOnly; secure'), ('expires', 'Thu, 19 Nov 1981 08:52:00 GMT'), ('cache-control', 'no-store, no-cache, must-revalidate'), ('pragma', 'no-cache'), ('set-cookie', 'frontend_cid=tAccgJgRt8ZHCJ7s; expires=Sat, 14-Sep-2024 15:27:28 GMT; Max-Age=3600; path=/; domain=www.hediyepaspas.com; secure; HttpOnly'), ('set-cookie', 'store=default; expires=Sun, 14-Sep-2025 14:27:28 GMT; Max-Age=31536000; path=/; domain=www.hediyepaspas.com; HttpOnly; secure'), ('set-cookie', 'layout=deleted; expires=Thu, 01-Jan-1970 00:00:01 GMT; Max-Age=0; path=/; domain=www.hediyepaspas.com; HttpOnly; secure'), ('content-type', 'text/html; charset=UTF-8'), ('x-frame-options', 'SAMEORIGIN'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:28 GMT'), ('server', 'LiteSpeed'), ('x-content-type-options', 'nosniff'), ('x-xss-protection', '1; mode=block'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4.291987419128418e-05</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>hediyepaspas.com</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45505.1150462963</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>45595.11503472222</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>ip128.ip-51-195-87.eu</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Hesse</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>50.1155,8.6842</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>AS16276 OVH SAS</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>60306</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Europe/Berlin</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>50.1155</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>8.6842</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/DE.svg</t>
         </is>
       </c>
     </row>
@@ -1605,11 +5674,110 @@
         <v>200</v>
       </c>
       <c r="E42" t="n">
-        <v>1726071307.433825</v>
+        <v>1726324190.647203</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>www.hotelhalilari.com_.png</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/5.6.40', 'content-type': 'text/html; charset=UTF-8', 'cache-control': 'no-store, no-cache, must-revalidate, post-check=0, pre-check=0', 'pragma': 'no-cache', 'x-frame-options': 'SAMEORIGIN', 'bubble-fpc': '3.5.1', 'content-length': '15225', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'date': 'Sat, 14 Sep 2024 14:27:26 GMT', 'server': 'LiteSpeed', 'x-content-type-options': 'nosniff', 'x-xss-protection': '1; mode=block', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3.034830093383789e-06</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>www.hotelhalilari.camilik.com</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>45510.80810185185</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>45600.80809027778</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>162p94xyd.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1633,11 +5801,110 @@
         <v>404</v>
       </c>
       <c r="E43" t="n">
-        <v>1726071308.573928</v>
+        <v>1726324192.32918</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>www.isteadiyaman.com_.png</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'cache-control': 'private, no-cache, no-store, must-revalidate, max-age=0', 'pragma': 'no-cache', 'content-type': 'text/html', 'content-length': '1238', 'date': 'Sat, 14 Sep 2024 14:27:29 GMT', 'server': 'LiteSpeed', 'vary': 'User-Agent', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2.311801910400391e-05</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>isteadiyaman.com</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45529.71115740741</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>45619.71114583333</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>102w8oqex.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1661,11 +5928,110 @@
         <v>200</v>
       </c>
       <c r="E44" t="n">
-        <v>1726071310.61937</v>
+        <v>1726324195.028032</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>www.kapionupaspasi.com_.png</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'cache-control': 'no-store, no-cache, must-revalidate, post-check=0, pre-check=0', 'pragma': 'no-cache', 'x-frame-options': 'SAMEORIGIN', 'bubble-fpc': '3.5.1', 'transfer-encoding': 'chunked', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'x-content-type-options': 'nosniff', 'x-xss-protection': '1; mode=block', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4.795098304748535e-05</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>kapionupaspasi.com</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45508.34420138889</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>45598.34418981482</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>102w8oqex.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1689,11 +6055,110 @@
         <v>200</v>
       </c>
       <c r="E45" t="n">
-        <v>1726071314.652019</v>
+        <v>1726324197.75362</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>www.karehalilar.com_.png</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Thu, 09 May 2024 12:59:28 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'content-length': '15617', 'date': 'Sat, 14 Sep 2024 14:27:28 GMT', 'server': 'LiteSpeed', 'cache-control': 'max-age=0, no-cache, no-store, must-revalidate', 'pragma': 'no-cache', 'expires': 'Mon, 29 Oct 1923 20:30:00 GMT', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2.803683280944824e-05</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>karehalilar.com</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45520.31297453704</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>45610.31296296296</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>ip128.ip-51-195-87.eu</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Hesse</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>50.1155,8.6842</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>AS16276 OVH SAS</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>60306</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Europe/Berlin</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>50.1155</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>8.6842</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/DE.svg</t>
         </is>
       </c>
     </row>
@@ -1710,18 +6175,117 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="E46" t="n">
-        <v>1726071318.069003</v>
+        <v>1726324202.852735</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>www.karohalicim.com_.png</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'content-length': '795', 'date': 'Sat, 14 Sep 2024 14:27:28 GMT', 'server': 'LiteSpeed', 'location': 'https://www.karohalicim.com/tr/', 'vary': 'User-Agent', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6.533861160278321e-06</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>karohalicim.com</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45520.31351851852</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>45610.31350694445</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>ip128.ip-51-195-87.eu</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Hesse</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>50.1155,8.6842</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>AS16276 OVH SAS</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>60306</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Europe/Berlin</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>50.1155</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>8.6842</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/DE.svg</t>
         </is>
       </c>
     </row>
@@ -1745,11 +6309,110 @@
         <v>200</v>
       </c>
       <c r="E47" t="n">
-        <v>1726071320.02922</v>
+        <v>1726324205.928396</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>www.karokaucukzemin.com_.png</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.karokaucukzemin.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.karokaucukzemin.com/wp-json/wp/v2/pages/633&gt;; rel="alternate"; type="application/json"'), ('link', '&lt;https://www.karokaucukzemin.com/&gt;; rel=shortlink'), ('etag', '"1338-1725921404;br"'), ('x-litespeed-cache', 'hit'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:24 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4.468441009521484e-05</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>karokaucukzemin.com</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45506.48365740741</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>45596.48364583333</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>211km5vaq.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1773,11 +6436,110 @@
         <v>200</v>
       </c>
       <c r="E48" t="n">
-        <v>1726071321.464144</v>
+        <v>1726324207.981002</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>www.kivircikhali.com_.png</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Thu, 15 Jun 2017 11:00:18 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '294', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1.752257347106934e-05</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>www.baskilicocukhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45507.41938657407</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>45597.419375</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1801,11 +6563,110 @@
         <v>200</v>
       </c>
       <c r="E49" t="n">
-        <v>1726071323.107612</v>
+        <v>1726324210.725858</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>www.merdivendipcubugu.com_.png</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'set-cookie': 'PHPSESSID=9f03fbe791e0c7aac2f16f0560a58d4f; path=/; HttpOnly; secure', 'expires': 'Thu, 19 Nov 1981 08:52:00 GMT', 'cache-control': 'no-store, no-cache, must-revalidate', 'pragma': 'no-cache', 'content-type': 'text/html; charset=UTF-8', 'transfer-encoding': 'chunked', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1.611781120300293e-05</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>merdivendipcubugu.com</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45546.21954861111</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>45636.21953703704</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>211km5vaq.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1829,11 +6690,110 @@
         <v>200</v>
       </c>
       <c r="E50" t="n">
-        <v>1726071325.228643</v>
+        <v>1726324213.213481</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>www.merdivenhalicubugu.com_.png</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'set-cookie': 'PHPSESSID=946f49457c8824e31d064c391a7458f2; path=/; HttpOnly; secure', 'expires': 'Thu, 19 Nov 1981 08:52:00 GMT', 'cache-control': 'no-store, no-cache, must-revalidate', 'pragma': 'no-cache', 'content-type': 'text/html; charset=UTF-8', 'content-length': '11510', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3.420615196228027e-05</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>merdivenhalicubugu.com</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45516.12018518519</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>45606.12017361111</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>211km5vaq.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1857,11 +6817,110 @@
         <v>200</v>
       </c>
       <c r="E51" t="n">
-        <v>1726071327.52668</v>
+        <v>1726324216.419449</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>www.mescithalisi.com_.png</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.mescithalisi.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.mescithalisi.com/wp-json/wp/v2/pages/6019131&gt;; rel="alternate"; type="application/json"'), ('link', '&lt;https://www.mescithalisi.com/&gt;; rel=shortlink'), ('etag', '"1330-1725917482;br"'), ('x-litespeed-cache', 'hit'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('content-length', '24152'), ('date', 'Sat, 14 Sep 2024 14:27:24 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1.812410354614258e-05</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>mescithalisi.com</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45541.93518518518</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>45631.93517361111</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>211km5vaq.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1885,11 +6944,110 @@
         <v>200</v>
       </c>
       <c r="E52" t="n">
-        <v>1726071329.627092</v>
+        <v>1726324219.413915</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>www.mineflocu.com_.png</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.mineflocu.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.mineflocu.com/wp-json/wp/v2/pages/7366&gt;; rel="alternate"; type="application/json"'), ('link', '&lt;https://www.mineflocu.com/&gt;; rel=shortlink'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:25 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1.771903038024902e-05</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>mineflocu.com</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45518.39760416667</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>45608.39759259259</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>211km5vaq.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1913,11 +7071,110 @@
         <v>200</v>
       </c>
       <c r="E53" t="n">
-        <v>1726071331.574907</v>
+        <v>1726324222.160018</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>www.myfloor.com.tr_.png</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/8.2.22'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.myfloor.com.tr/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.myfloor.com.tr/wp-json/wp/v2/pages/7105&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.myfloor.com.tr/&gt;; rel=shortlink'), ('server-timing', 'wp-before-template;dur=1708.39'), ('etag', '"6175-1726258110;br"'), ('x-litespeed-cache', 'hit'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:26 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2.932262420654297e-05</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>myfloor.com.tr</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>45520.65879629629</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>45610.65878472223</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>162uzpsk0.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1941,11 +7198,110 @@
         <v>200</v>
       </c>
       <c r="E54" t="n">
-        <v>1726071333.286583</v>
+        <v>1726324225.028288</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>www.paspasfabrikasi.com_.png</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('set-cookie', 'frontend=8df5bbc808870436cb5c0c589212e0d1; expires=Sat, 14-Sep-2024 15:27:27 GMT; Max-Age=3600; path=/; domain=www.paspasfabrikasi.com; HttpOnly; secure'), ('expires', 'Thu, 19 Nov 1981 08:52:00 GMT'), ('cache-control', 'no-store, no-cache, must-revalidate'), ('pragma', 'no-cache'), ('set-cookie', 'frontend_cid=x67F0d2HbyOQym8N; expires=Sat, 14-Sep-2024 15:27:27 GMT; Max-Age=3600; path=/; domain=www.paspasfabrikasi.com; secure; HttpOnly'), ('set-cookie', 'store=default; expires=Sun, 14-Sep-2025 14:27:27 GMT; Max-Age=31536000; path=/; domain=www.paspasfabrikasi.com; HttpOnly; secure'), ('set-cookie', 'layout=deleted; expires=Thu, 01-Jan-1970 00:00:01 GMT; Max-Age=0; path=/; domain=www.paspasfabrikasi.com; HttpOnly; secure'), ('content-type', 'text/html; charset=UTF-8'), ('x-frame-options', 'SAMEORIGIN'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:27 GMT'), ('server', 'LiteSpeed'), ('x-content-type-options', 'nosniff'), ('x-xss-protection', '1; mode=block'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3.526878356933594e-05</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>paspasfabrikasi.com</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>45516.5600462963</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>45606.56003472222</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ip128.ip-51-195-87.eu</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Hesse</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>50.1155,8.6842</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>AS16276 OVH SAS</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>60306</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Europe/Berlin</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>50.1155</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>8.6842</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/DE.svg</t>
         </is>
       </c>
     </row>
@@ -1969,11 +7325,110 @@
         <v>200</v>
       </c>
       <c r="E55" t="n">
-        <v>1726071334.690312</v>
+        <v>1726324227.034806</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>www.poliamidhali.com_.png</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Thu, 15 Jun 2017 11:07:34 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '291', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2.017498016357422e-05</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>www.ucakhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>45507.41946759259</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>45597.41945601852</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -1997,11 +7452,110 @@
         <v>200</v>
       </c>
       <c r="E56" t="n">
-        <v>1726071335.792448</v>
+        <v>1726324228.976455</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>www.polyamithali.com_.png</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Thu, 15 Jun 2017 11:08:04 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '291', 'date': 'Sat, 14 Sep 2024 14:27:25 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0001790573596954346</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>www.ucuzzemin.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>45507.41930555556</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>45597.41929398148</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2025,11 +7579,110 @@
         <v>200</v>
       </c>
       <c r="E57" t="n">
-        <v>1726071337.133139</v>
+        <v>1726324231.075934</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>www.protokolhalilari.com_.png</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Thu, 15 Jun 2017 11:09:18 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '299', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1.605439186096191e-05</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>www.protokolhalilari.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>45511.41355324074</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>45601.41354166667</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2053,11 +7706,110 @@
         <v>200</v>
       </c>
       <c r="E58" t="n">
-        <v>1726071342.992572</v>
+        <v>1726324238.614809</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>www.samurhalilari.com_.png</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.samurhalilari.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.samurhalilari.com/wp-json/wp/v2/pages/1043&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.samurhalilari.com/&gt;; rel=shortlink'), ('etag', '"2659206-1726002716;br"'), ('x-litespeed-cache', 'hit'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding'), ('date', 'Sat, 14 Sep 2024 14:27:24 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1.903247833251953e-05</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>www.turkfleks.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>45539.03967592592</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>45629.03966435185</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2081,11 +7833,110 @@
         <v>200</v>
       </c>
       <c r="E59" t="n">
-        <v>1726071345.61633</v>
+        <v>1726324241.753245</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>www.stepmat.com.tr_.png</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/8.2.23', 'set-cookie': 'PHPSESSID=lo4rle5krma7tsf63i7njdtk47; expires=Sat, 14 Sep 2024 15:27:27 GMT; Max-Age=3600; path=/; domain=www.stepmat.com.tr; secure; HttpOnly; SameSite=Lax', 'pragma': 'no-cache', 'cache-control': 'max-age=0, must-revalidate, no-cache, no-store', 'expires': 'Thu, 14 Sep 2023 11:21:00 GMT', 'content-security-policy-report-only': "font-src data: 'self' 'unsafe-inline'; form-action geostag.cardinalcommerce.com geo.cardinalcommerce.com 1eafstag.cardinalcommerce.com 1eaf.cardinalcommerce.com centinelapistag.cardinalcommerce.com centinelapi.cardinalcommerce.com pilot-payflowlink.paypal.com www.paypal.com www.sandbox.paypal.com *.cardinalcommerce.com *.paypal.com 3ds-secure.cardcomplete.com www.clicksafe.lloydstsb.com pay.activa-card.com *.wirecard.com acs.sia.eu *.touchtechpayments.com www.securesuite.co.uk rsa3dsauth.com *.monzo.com *.arcot.com *.wlp-acs.com * 'self' 'unsafe-inline'; frame-ancestors 'self'; frame-src fast.amc.demdex.net *.adobe.com bid.g.doubleclick.net *.youtube.com *.youtube-nocookie.com geostag.cardinalcommerce.com geo.cardinalcommerce.com 1eafstag.cardinalcommerce.com 1eaf.cardinalcommerce.com centinelapistag.cardinalcommerce.com centinelapi.cardinalcommerce.com www.paypal.com www.sandbox.paypal.com pilot-payflowlink.paypal.com player.vimeo.com https://www.google.com/recaptcha/ c.paypal.com checkout.paypal.com assets.braintreegateway.com pay.google.com *.cardinalcommerce.com *.paypal.com * 'self' 'unsafe-inline'; img-src assets.adobedtm.com amcglobal.sc.omtrdc.net dpm.demdex.net cm.everesttech.net *.adobe.com widgets.magentocommerce.com data: www.googleadservices.com www.google-analytics.com googleads.g.doubleclick.net www.google.com bid.g.doubleclick.net analytics.google.com www.googletagmanager.com *.ftcdn.net *.behance.net t.paypal.com www.paypal.com www.paypalobjects.com fpdbs.paypal.com fpdbs.sandbox.paypal.com *.vimeocdn.com i.ytimg.com *.youtube.com validator.swagger.io www.sandbox.paypal.com b.stats.paypal.com dub.stats.paypal.com assets.braintreegateway.com c.paypal.com checkout.paypal.com *.paypal.com data: 'self' 'unsafe-inline'; script-src assets.adobedtm.com *.adobe.com www.googleadservices.com www.google-analytics.com googleads.g.doubleclick.net analytics.google.com www.googletagmanager.com *.newrelic.com *.nr-data.net geostag.cardinalcommerce.com 1eafstag.cardinalcommerce.com geoapi.cardinalcommerce.com 1eafapi.cardinalcommerce.com songbird.cardinalcommerce.com includestest.ccdc02.com www.paypal.com www.sandbox.paypal.com www.paypalobjects.com t.paypal.com s.ytimg.com www.googleapis.com vimeo.com www.vimeo.com *.vimeocdn.com *.youtube.com https://www.gstatic.com/recaptcha/ https://www.google.com/recaptcha/ js.braintreegateway.com assets.braintreegateway.com c.paypal.com pay.google.com api.braintreegateway.com api.sandbox.braintreegateway.com client-analytics.braintreegateway.com client-analytics.sandbox.braintreegateway.com *.paypal.com songbirdstag.cardinalcommerce.com 'self' 'unsafe-inline' 'unsafe-eval'; style-src *.adobe.com unsafe-inline assets.braintreegateway.com 'self' 'unsafe-inline'; object-src 'self' 'unsafe-inline'; media-src *.adobe.com 'self' 'unsafe-inline'; manifest-src 'self' 'unsafe-inline'; connect-src dpm.demdex.net amcglobal.sc.omtrdc.net www.google-analytics.com www.googleadservices.com analytics.google.com www.googletagmanager.com *.newrelic.com *.nr-data.net vimeo.com geostag.cardinalcommerce.com geo.cardinalcommerce.com 1eafstag.cardinalcommerce.com 1eaf.cardinalcommerce.com centinelapistag.cardinalcommerce.com centinelapi.cardinalcommerce.com www.sandbox.paypal.com www.paypalobjects.com www.paypal.com pilot-payflowlink.paypal.com api.braintreegateway.com api.sandbox.braintreegateway.com client-analytics.braintreegateway.com client-analytics.sandbox.braintreegateway.com *.braintree-api.com *.paypal.com *.cardinalcommerce.com *.google.com google.com 'self' 'unsafe-inline'; child-src assets.braintreegateway.com c.paypal.com *.paypal.com http: https: blob: 'self' 'unsafe-inline'; default-src 'self' 'unsafe-inline' 'unsafe-eval'; base-uri 'self' 'unsafe-inline';", 'x-content-type-options': 'nosniff', 'x-xss-protection': '1; mode=block', 'x-frame-options': 'SAMEORIGIN', 'content-type': 'text/html; charset=UTF-8', 'transfer-encoding': 'chunked', 'content-encoding': 'br', 'vary': 'Accept-Encoding,User-Agent', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'x-ua-compatible': 'IE=edge', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2.03397274017334e-05</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>stepmat.com.tr</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45520.6583912037</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>45610.65837962963</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>162uzpsk0.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2109,11 +7960,110 @@
         <v>200</v>
       </c>
       <c r="E60" t="n">
-        <v>1726071346.814214</v>
+        <v>1726324243.843842</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>www.sunicimhali.com_.png</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.2.34', 'content-type': 'text/html; charset=UTF-8', 'content-length': '404', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'date': 'Sat, 14 Sep 2024 14:27:25 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3.331065177917481e-05</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>www.camihalicisi.ehalici.com</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>45514.19333333334</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>45604.19332175926</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>3sazof9.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>İzmir Province</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>38.4127,27.1384</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>38.4127</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>27.1384</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2137,11 +8087,110 @@
         <v>200</v>
       </c>
       <c r="E61" t="n">
-        <v>1726071348.173024</v>
+        <v>1726324245.726923</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>www.taftinghali.com_.png</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Tue, 02 Jul 2019 11:53:54 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '179', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3.558707237243652e-05</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>www.ucuzzemin.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>45507.41930555556</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>45597.41929398148</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2165,11 +8214,110 @@
         <v>200</v>
       </c>
       <c r="E62" t="n">
-        <v>1726071350.47946</v>
+        <v>1726324248.861084</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>www.tatamievaminder.com_.png</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Tue, 02 Jul 2019 12:23:00 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '195', 'date': 'Sat, 14 Sep 2024 14:27:24 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3.015995025634766e-06</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>www.baskilicocukhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>45507.41938657407</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>45597.419375</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2193,11 +8341,110 @@
         <v>200</v>
       </c>
       <c r="E63" t="n">
-        <v>1726071352.24616</v>
+        <v>1726324251.475836</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>www.tatamiminder.net_.png</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.tatamiminder.net/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.tatamiminder.net/wp-json/wp/v2/pages/553&gt;; rel="alternate"; type="application/json"'), ('link', '&lt;https://www.tatamiminder.net/&gt;; rel=shortlink'), ('etag', '"1324-1725913052;br"'), ('x-litespeed-cache', 'hit'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('content-length', '20870'), ('date', 'Sat, 14 Sep 2024 14:27:24 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2.858424186706543e-05</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>tatamiminder.net</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>45518.39711805555</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>45608.39710648148</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>211km5vaq.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>41.0138,28.9497</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>41.0138</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>28.9497</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2221,11 +8468,110 @@
         <v>200</v>
       </c>
       <c r="E64" t="n">
-        <v>1726071353.855042</v>
+        <v>1726324253.963605</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>www.tataminder.com_.png</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'last-modified': 'Tue, 02 Jul 2019 12:29:08 GMT', 'accept-ranges': 'bytes', 'content-encoding': 'br', 'vary': 'Accept-Encoding', 'content-length': '195', 'date': 'Sat, 14 Sep 2024 14:27:25 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2.464199066162109e-05</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>www.ucakhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>45507.41946759259</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>45597.41945601852</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2249,11 +8595,110 @@
         <v>200</v>
       </c>
       <c r="E65" t="n">
-        <v>1726071358.94447</v>
+        <v>1726324257.309598</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>www.turkfleks.com_.png</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('content-type', 'text/html; charset=UTF-8'), ('link', '&lt;https://www.turkfleks.com/wp-json/&gt;; rel="https://api.w.org/"'), ('link', '&lt;https://www.turkfleks.com/wp-json/wp/v2/pages/875&gt;; rel="alternate"; title="JSON"; type="application/json"'), ('link', '&lt;https://www.turkfleks.com/&gt;; rel=shortlink'), ('etag', '"2669301-1726037791;br"'), ('x-litespeed-cache', 'hit'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding'), ('content-length', '23619'), ('date', 'Sat, 14 Sep 2024 14:27:27 GMT'), ('server', 'LiteSpeed'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6.591558456420898e-06</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>www.turkfleks.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>45539.03967592592</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>45629.03966435185</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2277,11 +8722,110 @@
         <v>200</v>
       </c>
       <c r="E66" t="n">
-        <v>1726071360.057999</v>
+        <v>1726324259.040612</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>www.ucakhalisi.com_.png</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'x-powered-by': 'PHP/7.4.33', 'content-type': 'text/html; charset=UTF-8', 'content-length': '0', 'date': 'Sat, 14 Sep 2024 14:27:27 GMT', 'server': 'LiteSpeed', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3.356385231018066e-05</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>www.ucakhalisi.halivizyon.com</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R10']</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>45507.41946759259</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>45597.41945601852</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>112zop6uj.guzel.net.tr</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Bursa</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Bursa Province</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>40.1956,29.0601</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Europe/Istanbul</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>40.1956</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>29.0601</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/TR.svg</t>
         </is>
       </c>
     </row>
@@ -2298,18 +8842,117 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="E67" t="n">
-        <v>1726071364.527637</v>
+        <v>1726324264.551573</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>www.ucuzkarohalilar.com_.png</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Headers({'connection': 'Keep-Alive', 'keep-alive': 'timeout=5, max=100', 'content-type': 'text/html', 'content-length': '795', 'date': 'Sat, 14 Sep 2024 14:27:29 GMT', 'server': 'LiteSpeed', 'location': 'https://www.ucuzkarohalilar.com/tr/', 'vary': 'User-Agent', 'alt-svc': 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"'})</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1.768994331359863e-05</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ucuzkarohalilar.com</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>45520.31252314815</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>45610.31251157408</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>ip128.ip-51-195-87.eu</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Hesse</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>50.1155,8.6842</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>AS16276 OVH SAS</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>60306</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Europe/Berlin</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>50.1155</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>8.6842</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/DE.svg</t>
         </is>
       </c>
     </row>
@@ -2333,11 +8976,110 @@
         <v>200</v>
       </c>
       <c r="E68" t="n">
-        <v>1726071366.439922</v>
+        <v>1726324267.69665</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>www.zeminbank.com_.png</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Headers([('connection', 'Keep-Alive'), ('keep-alive', 'timeout=5, max=100'), ('x-powered-by', 'PHP/7.4.33'), ('set-cookie', 'frontend=8bcfc0d89008814f17624bf3340faaf3; expires=Sat, 14-Sep-2024 15:27:29 GMT; Max-Age=3600; path=/; domain=www.zeminbank.com; HttpOnly; secure'), ('expires', 'Thu, 19 Nov 1981 08:52:00 GMT'), ('cache-control', 'no-store, no-cache, must-revalidate'), ('pragma', 'no-cache'), ('set-cookie', 'frontend_cid=3b9eE6jR5z9yR3cm; expires=Sat, 14-Sep-2024 15:27:29 GMT; Max-Age=3600; path=/; domain=www.zeminbank.com; secure; HttpOnly'), ('set-cookie', 'store=tr_tr; expires=Sun, 14-Sep-2025 14:27:29 GMT; Max-Age=31536000; path=/; domain=www.zeminbank.com; HttpOnly; secure'), ('set-cookie', 'layout=deleted; expires=Thu, 01-Jan-1970 00:00:01 GMT; Max-Age=0; path=/; domain=www.zeminbank.com; HttpOnly; secure'), ('content-type', 'text/html; charset=UTF-8'), ('x-frame-options', 'SAMEORIGIN'), ('transfer-encoding', 'chunked'), ('content-encoding', 'br'), ('vary', 'Accept-Encoding,User-Agent'), ('date', 'Sat, 14 Sep 2024 14:27:29 GMT'), ('server', 'LiteSpeed'), ('x-content-type-options', 'nosniff'), ('x-xss-protection', '1; mode=block'), ('alt-svc', 'h3=":443"; ma=2592000, h3-29=":443"; ma=2592000, h3-Q050=":443"; ma=2592000, h3-Q046=":443"; ma=2592000, h3-Q043=":443"; ma=2592000, quic=":443"; ma=2592000; v="43,46"')])</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4.199504852294922e-05</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>zeminbank.com</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['US', "Let's Encrypt", 'R11']</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>45505.11539351852</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>45595.11538194444</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>ip128.ip-51-195-87.eu</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Hesse</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>50.1155,8.6842</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>AS16276 OVH SAS</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>60306</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Europe/Berlin</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>50.1155</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>8.6842</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>https://cdn.ipinfo.io/static/images/countries-flags/DE.svg</t>
         </is>
       </c>
     </row>

--- a/app/website_monitor/domainler.xlsx
+++ b/app/website_monitor/domainler.xlsx
@@ -655,10 +655,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S2" t="n">
+        <v>34096</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -685,15 +683,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y2" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -782,10 +776,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>35210</t>
-        </is>
+      <c r="S3" t="n">
+        <v>35210</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -812,15 +804,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>38.4127</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>27.1384</t>
-        </is>
+      <c r="Y3" t="n">
+        <v>38.4127</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>27.1384</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -909,10 +897,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S4" t="n">
+        <v>16250</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -939,15 +925,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y4" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -1036,10 +1018,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S5" t="n">
+        <v>16250</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1066,15 +1046,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y5" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1163,10 +1139,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S6" t="n">
+        <v>34096</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1193,15 +1167,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y6" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1290,10 +1260,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>35210</t>
-        </is>
+      <c r="S7" t="n">
+        <v>35210</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1320,15 +1288,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>38.4127</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>27.1384</t>
-        </is>
+      <c r="Y7" t="n">
+        <v>38.4127</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>27.1384</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1417,10 +1381,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S8" t="n">
+        <v>34096</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1447,15 +1409,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y8" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1544,10 +1502,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S9" t="n">
+        <v>34096</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1574,15 +1530,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y9" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1671,10 +1623,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S10" t="n">
+        <v>34096</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1701,15 +1651,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y10" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1798,10 +1744,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S11" t="n">
+        <v>34096</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1828,15 +1772,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y11" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -1925,10 +1865,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S12" t="n">
+        <v>34096</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1955,15 +1893,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y12" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -2052,10 +1986,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S13" t="n">
+        <v>34096</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2082,15 +2014,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y13" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -2179,10 +2107,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>35210</t>
-        </is>
+      <c r="S14" t="n">
+        <v>35210</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2209,15 +2135,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>38.4127</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>27.1384</t>
-        </is>
+      <c r="Y14" t="n">
+        <v>38.4127</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>27.1384</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2306,10 +2228,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>35210</t>
-        </is>
+      <c r="S15" t="n">
+        <v>35210</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2336,15 +2256,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>38.4127</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>27.1384</t>
-        </is>
+      <c r="Y15" t="n">
+        <v>38.4127</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>27.1384</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2433,10 +2349,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S16" t="n">
+        <v>16250</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2463,15 +2377,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y16" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -2560,10 +2470,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S17" t="n">
+        <v>16250</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2590,15 +2498,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y17" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2687,10 +2591,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S18" t="n">
+        <v>16250</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2717,15 +2619,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y18" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -2814,10 +2712,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S19" t="n">
+        <v>16250</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2844,15 +2740,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y19" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -2941,10 +2833,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S20" t="n">
+        <v>16250</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2971,15 +2861,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y20" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -3068,10 +2954,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S21" t="n">
+        <v>16250</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3098,15 +2982,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y21" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -3195,10 +3075,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S22" t="n">
+        <v>16250</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3225,15 +3103,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y22" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -3322,10 +3196,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S23" t="n">
+        <v>16250</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3352,15 +3224,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y23" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3449,10 +3317,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S24" t="n">
+        <v>34096</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3479,15 +3345,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y24" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -3576,10 +3438,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S25" t="n">
+        <v>34096</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3606,15 +3466,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y25" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -3703,10 +3559,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>35210</t>
-        </is>
+      <c r="S26" t="n">
+        <v>35210</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3733,15 +3587,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>38.4127</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>27.1384</t>
-        </is>
+      <c r="Y26" t="n">
+        <v>38.4127</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>27.1384</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -3830,10 +3680,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S27" t="n">
+        <v>34096</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3860,15 +3708,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y27" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
@@ -3957,10 +3801,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S28" t="n">
+        <v>34096</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3987,15 +3829,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y28" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -4084,10 +3922,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S29" t="n">
+        <v>34096</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4114,15 +3950,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y29" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
@@ -4211,10 +4043,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S30" t="n">
+        <v>34096</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4241,15 +4071,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y30" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -4338,10 +4164,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S31" t="n">
+        <v>16250</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4368,15 +4192,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y31" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -4465,10 +4285,8 @@
           <t>AS47583 Hostinger International Limited</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>7941</t>
-        </is>
+      <c r="S32" t="n">
+        <v>7941</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4495,15 +4313,11 @@
           <t>EU</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>52.6958</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>6.1944</t>
-        </is>
+      <c r="Y32" t="n">
+        <v>52.6958</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6.1944</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
@@ -4592,10 +4406,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S33" t="n">
+        <v>34096</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4622,15 +4434,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y33" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -4719,10 +4527,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S34" t="n">
+        <v>16250</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4749,15 +4555,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y34" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
@@ -4846,10 +4648,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S35" t="n">
+        <v>16250</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4876,15 +4676,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y35" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -4973,10 +4769,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S36" t="n">
+        <v>34096</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -5003,15 +4797,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y36" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -5100,10 +4890,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>35210</t>
-        </is>
+      <c r="S37" t="n">
+        <v>35210</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5130,15 +4918,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>38.4127</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>27.1384</t>
-        </is>
+      <c r="Y37" t="n">
+        <v>38.4127</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>27.1384</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -5227,10 +5011,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S38" t="n">
+        <v>34096</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5257,15 +5039,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y38" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -5354,10 +5132,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S39" t="n">
+        <v>16250</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5384,15 +5160,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y39" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -5481,10 +5253,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S40" t="n">
+        <v>34096</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5511,15 +5281,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y40" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
@@ -5608,10 +5374,8 @@
           <t>AS16276 OVH SAS</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>60306</t>
-        </is>
+      <c r="S41" t="n">
+        <v>60306</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5638,15 +5402,11 @@
           <t>EU</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>50.1155</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>8.6842</t>
-        </is>
+      <c r="Y41" t="n">
+        <v>50.1155</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>8.684200000000001</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -5735,10 +5495,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S42" t="n">
+        <v>34096</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5765,15 +5523,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y42" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -5862,10 +5616,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S43" t="n">
+        <v>34096</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5892,15 +5644,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y43" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
@@ -5989,10 +5737,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S44" t="n">
+        <v>34096</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -6019,15 +5765,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y44" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
@@ -6116,10 +5858,8 @@
           <t>AS16276 OVH SAS</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>60306</t>
-        </is>
+      <c r="S45" t="n">
+        <v>60306</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6146,15 +5886,11 @@
           <t>EU</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>50.1155</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>8.6842</t>
-        </is>
+      <c r="Y45" t="n">
+        <v>50.1155</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>8.684200000000001</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
@@ -6243,10 +5979,8 @@
           <t>AS16276 OVH SAS</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>60306</t>
-        </is>
+      <c r="S46" t="n">
+        <v>60306</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6273,15 +6007,11 @@
           <t>EU</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>50.1155</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>8.6842</t>
-        </is>
+      <c r="Y46" t="n">
+        <v>50.1155</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8.684200000000001</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -6370,10 +6100,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S47" t="n">
+        <v>34096</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6400,15 +6128,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y47" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -6497,10 +6221,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S48" t="n">
+        <v>16250</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6527,15 +6249,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y48" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -6624,10 +6342,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S49" t="n">
+        <v>34096</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6654,15 +6370,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y49" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
@@ -6751,10 +6463,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S50" t="n">
+        <v>34096</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6781,15 +6491,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y50" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
@@ -6878,10 +6584,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S51" t="n">
+        <v>34096</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6908,15 +6612,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y51" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
@@ -7005,10 +6705,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S52" t="n">
+        <v>34096</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -7035,15 +6733,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y52" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
@@ -7132,10 +6826,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S53" t="n">
+        <v>34096</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -7162,15 +6854,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y53" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
@@ -7259,10 +6947,8 @@
           <t>AS16276 OVH SAS</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>60306</t>
-        </is>
+      <c r="S54" t="n">
+        <v>60306</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7289,15 +6975,11 @@
           <t>EU</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>50.1155</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>8.6842</t>
-        </is>
+      <c r="Y54" t="n">
+        <v>50.1155</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>8.684200000000001</v>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
@@ -7386,10 +7068,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S55" t="n">
+        <v>16250</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7416,15 +7096,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y55" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
@@ -7513,10 +7189,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S56" t="n">
+        <v>16250</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7543,15 +7217,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y56" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
@@ -7640,10 +7310,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S57" t="n">
+        <v>16250</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7670,15 +7338,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y57" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -7767,10 +7431,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S58" t="n">
+        <v>16250</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7797,15 +7459,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y58" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
@@ -7894,10 +7552,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S59" t="n">
+        <v>34096</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7924,15 +7580,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y59" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
@@ -8021,10 +7673,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>35210</t>
-        </is>
+      <c r="S60" t="n">
+        <v>35210</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -8051,15 +7701,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>38.4127</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>27.1384</t>
-        </is>
+      <c r="Y60" t="n">
+        <v>38.4127</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>27.1384</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
@@ -8148,10 +7794,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S61" t="n">
+        <v>16250</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -8178,15 +7822,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y61" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
@@ -8275,10 +7915,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S62" t="n">
+        <v>16250</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8305,15 +7943,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y62" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
@@ -8402,10 +8036,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>34096</t>
-        </is>
+      <c r="S63" t="n">
+        <v>34096</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8432,15 +8064,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>41.0138</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>28.9497</t>
-        </is>
+      <c r="Y63" t="n">
+        <v>41.0138</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>28.9497</v>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
@@ -8529,10 +8157,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S64" t="n">
+        <v>16250</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8559,15 +8185,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y64" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
@@ -8656,10 +8278,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S65" t="n">
+        <v>16250</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8686,15 +8306,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y65" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
@@ -8783,10 +8399,8 @@
           <t>AS42846 GNET Internet Telekomunikasyon A.S.</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
+      <c r="S66" t="n">
+        <v>16250</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8813,15 +8427,11 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>40.1956</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>29.0601</t>
-        </is>
+      <c r="Y66" t="n">
+        <v>40.1956</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>29.0601</v>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
@@ -8910,10 +8520,8 @@
           <t>AS16276 OVH SAS</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>60306</t>
-        </is>
+      <c r="S67" t="n">
+        <v>60306</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8940,15 +8548,11 @@
           <t>EU</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>50.1155</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>8.6842</t>
-        </is>
+      <c r="Y67" t="n">
+        <v>50.1155</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>8.684200000000001</v>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
@@ -9037,10 +8641,8 @@
           <t>AS16276 OVH SAS</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>60306</t>
-        </is>
+      <c r="S68" t="n">
+        <v>60306</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -9067,15 +8669,11 @@
           <t>EU</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>50.1155</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>8.6842</t>
-        </is>
+      <c r="Y68" t="n">
+        <v>50.1155</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>8.684200000000001</v>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
